--- a/data.xlsx
+++ b/data.xlsx
@@ -1,124 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/PycharmProjects/python-test-otomasyon/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27A4E08-42DC-4545-8692-FD08B997EB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{62C99857-5183-5C4A-BEBC-1CA72C8C6DFC}"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16260" windowWidth="28040" xWindow="380" yWindow="500"/>
   </bookViews>
   <sheets>
-    <sheet name="kitaplar" sheetId="1" r:id="rId1"/>
-    <sheet name="notlar" sheetId="2" r:id="rId2"/>
+    <sheet name="kitaplar" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="notlar" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Alexandre Dumas</t>
-  </si>
-  <si>
-    <t>Yazar</t>
-  </si>
-  <si>
-    <t>Başlık</t>
-  </si>
-  <si>
-    <t>Yıl</t>
-  </si>
-  <si>
-    <t>Üç Silahşörler</t>
-  </si>
-  <si>
-    <t>Victor Hugo</t>
-  </si>
-  <si>
-    <t>Sefiller</t>
-  </si>
-  <si>
-    <t>Daniel Defoe</t>
-  </si>
-  <si>
-    <t>Robinson Crusoe</t>
-  </si>
-  <si>
-    <t>Define Adası</t>
-  </si>
-  <si>
-    <t>Robert Stevenson</t>
-  </si>
-  <si>
-    <t>Suç ve Ceza</t>
-  </si>
-  <si>
-    <t>Fyodor Dostoyevski</t>
-  </si>
-  <si>
-    <t>İsim</t>
-  </si>
-  <si>
-    <t>Vize</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>Ali</t>
-  </si>
-  <si>
-    <t>Veli</t>
-  </si>
-  <si>
-    <t>Fatma</t>
-  </si>
-  <si>
-    <t>Zeynep</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="16"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -134,27 +51,86 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -454,157 +430,223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C2C4E3-488C-9645-A84D-13E919C5D4B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="3"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="22.1640625"/>
+    <col customWidth="1" max="2" min="2" style="3" width="29.1640625"/>
+    <col customWidth="1" max="3" min="3" style="3" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="4" style="3" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2">
+    <row customHeight="1" ht="21" r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Yazar</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Başlık</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Yıl</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="21" r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Alexandre Dumas</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Üç Silahşörler</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>1844</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
+    <row customHeight="1" ht="21" r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Victor Hugo</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Sefiller</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>1862</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
+    <row customHeight="1" ht="21" r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Daniel Defoe</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Robinson Crusoe</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>1719</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2">
+    <row customHeight="1" ht="21" r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Robert Stevenson</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Define Adası</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>1883</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2">
+    <row customHeight="1" ht="21" r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Fyodor Dostoyevski</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Suç ve Ceza</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>1866</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF9AA06-BCFB-924D-AB1B-36D220E36B79}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1">
+    <row customHeight="1" ht="21" r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>İsim</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Vize</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ortalama</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="21" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Ali</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="n">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="D2" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21" r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Veli</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="n">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="D3" t="n">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Fatma</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="n">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="D4" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21" r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Zeynep</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="n">
         <v>60</v>
       </c>
+      <c r="D5" t="n">
+        <v>67.5</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32,13 +32,37 @@
       <sz val="16"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="002C27CB"/>
+      <sz val="16"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0027CB5B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E3331B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0008D84A"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -53,11 +77,16 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -576,9 +605,9 @@
           <t>Final</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ortalama</t>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Ortalama</t>
         </is>
       </c>
     </row>
@@ -594,7 +623,7 @@
       <c r="C2" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="7" t="n">
         <v>55</v>
       </c>
     </row>
@@ -610,7 +639,7 @@
       <c r="C3" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="8" t="n">
         <v>82.5</v>
       </c>
     </row>
@@ -626,7 +655,7 @@
       <c r="C4" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="8" t="n">
         <v>85</v>
       </c>
     </row>
@@ -642,7 +671,7 @@
       <c r="C5" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="7" t="n">
         <v>67.5</v>
       </c>
     </row>
